--- a/工作计划/周工作计划.xlsx
+++ b/工作计划/周工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16500"/>
+    <workbookView windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template (2)" sheetId="15" r:id="rId1"/>
@@ -385,23 +385,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -409,7 +409,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,14 +417,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -432,53 +455,46 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -486,30 +502,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -517,43 +546,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -586,7 +586,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +646,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,162 +767,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,30 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,10 +849,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -907,6 +881,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -923,6 +912,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -934,148 +934,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1098,7 +1098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1107,13 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1125,13 +1125,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1164,19 +1164,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,55 +1196,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1520,19 +1520,19 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="64.9375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="64.9411764705882" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1656,13 +1656,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.2053571428571" customWidth="1"/>
-    <col min="3" max="3" width="36.1071428571429" customWidth="1"/>
+    <col min="1" max="1" width="23.2058823529412" customWidth="1"/>
+    <col min="3" max="3" width="36.1102941176471" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.2" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="88" spans="1:5">
+    <row r="4" ht="77" spans="1:5">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
@@ -1780,14 +1780,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3839285714286" customWidth="1"/>
-    <col min="2" max="2" width="9.69642857142857" customWidth="1"/>
-    <col min="3" max="3" width="79.0267857142857" customWidth="1"/>
+    <col min="1" max="1" width="16.3823529411765" customWidth="1"/>
+    <col min="2" max="2" width="9.69852941176471" customWidth="1"/>
+    <col min="3" max="3" width="79.0294117647059" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.2" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1954,13 +1954,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.4375" customWidth="1"/>
-    <col min="3" max="3" width="37.4375" customWidth="1"/>
+    <col min="1" max="1" width="13.4411764705882" customWidth="1"/>
+    <col min="3" max="3" width="37.4411764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2145,16 +2145,16 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.1339285714286" customWidth="1"/>
-    <col min="4" max="4" width="37.0089285714286" customWidth="1"/>
-    <col min="5" max="5" width="8.67857142857143" customWidth="1"/>
+    <col min="3" max="3" width="45.1323529411765" customWidth="1"/>
+    <col min="4" max="4" width="37.0073529411765" customWidth="1"/>
+    <col min="5" max="5" width="8.67647058823529" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:6">
+    <row r="1" s="3" customFormat="1" ht="15.2" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2343,10 +2343,10 @@
       <selection activeCell="A1" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.1696428571429" customWidth="1"/>
-    <col min="3" max="3" width="16.2142857142857" customWidth="1"/>
+    <col min="1" max="1" width="15.1691176470588" customWidth="1"/>
+    <col min="3" max="3" width="16.2132352941176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2481,10 +2481,10 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="4" width="9.14285714285714" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6696428571429" customWidth="1"/>
+    <col min="3" max="4" width="9.13970588235294" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6691176470588" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -2602,19 +2602,19 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="40.9910714285714" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="40.9926470588235" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2701,15 +2701,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="54.9285714285714" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="54.9264705882353" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2819,15 +2819,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="52.4285714285714" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="52.4264705882353" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="11">
         <v>44438</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" ht="36" spans="1:5">
+    <row r="3" ht="30" spans="1:5">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="27" t="s">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="18" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="27" t="s">
@@ -2890,7 +2890,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="18" spans="1:5">
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="6">
         <v>44440</v>
       </c>
@@ -2948,15 +2948,15 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="68.6696428571429" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="68.6691176470588" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3162,15 +3162,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="63.5625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="63.5661764705882" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3319,18 +3319,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="47.9196428571429" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.7589285714286" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="47.9191176470588" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.7573529411765" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3507,15 +3507,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="57.3482142857143" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="57.3455882352941" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3673,15 +3673,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="72.3303571428571" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="25"/>
+    <col min="1" max="1" width="16.1911764705882" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.13970588235294" style="4"/>
+    <col min="3" max="3" width="72.3308823529412" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.13970588235294" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:5">
+    <row r="1" s="4" customFormat="1" ht="15.2" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
